--- a/loaded_influencer_data/elsaset/elsaset_video.xlsx
+++ b/loaded_influencer_data/elsaset/elsaset_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,25 +506,25 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7486765769968143671</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6729</v>
+        <v>7193</v>
       </c>
       <c r="C2" t="n">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -532,19 +532,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10.68509436766236</v>
+        <v>10.23217016543862</v>
       </c>
       <c r="I2" t="n">
-        <v>10.41759548224105</v>
+        <v>9.912414847768664</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2674988854213107</v>
+        <v>0.3197553176699569</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1486104919007282</v>
+        <v>0.2224384818573613</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -553,2412 +553,2462 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@elsaset/video/7486760195960491319</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9615</v>
+      </c>
+      <c r="C3" t="n">
+        <v>435</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>acne prone skin sinii ngumpull‼️ kalian wajib nyoba produk yg satu ini biar terbebas dari jerawatt ☝🏻</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4.742589703588144</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.524180967238689</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.218408736349454</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.124804992199688</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>고정됨</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@elsaset/video/7489826051535719688</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7306</v>
+      </c>
+      <c r="C4" t="n">
+        <v>598</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>24</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>skincare sepaket gini murcee amatt woiii mana bagus juga lagii 🫵🏻😍 @Little Fairy Beauty</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8.280865042430879</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.185053380782918</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.09581166164796058</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.3284971256501505</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@elsaset/video/7487877439264247048</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11400</v>
+      </c>
+      <c r="C5" t="n">
+        <v>329</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>19</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>kagett banget masa harga 20ribuan tapi hasilnya secakep inii! @OMG #Demitotalitashariramadan #OMGBeauty</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3.105263157894737</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.885964912280702</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2192982456140351</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@elsaset/video/7487180346270715154</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6735</v>
+      </c>
+      <c r="C6" t="n">
+        <v>441</v>
+      </c>
+      <c r="D6" t="n">
+        <v>35</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>32</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>skincare local rasa high end ☝🏻😍 #WardahAminoGelCleanser #LowPH #GentleFaceWash</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7.067557535263548</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.547884187082404</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5196733481811433</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.4751299183370453</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@elsaset/video/7486760195960491319</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>9353</v>
-      </c>
-      <c r="C3" t="n">
-        <v>428</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>acne prone skin sinii ngumpull‼️ kalian wajib nyoba produk yg satu ini biar terbebas dari jerawatt ☝🏻</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4.768523468405859</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.576071848604726</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1924516198011333</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.1069175665561852</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>고정됨</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2025-03-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7486763914387115270</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>54400</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1217</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="B7" t="n">
+        <v>55000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1247</v>
+      </c>
+      <c r="D7" t="n">
+        <v>65</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>73</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Membalas @ranti^^ Celamatttt 🫶🏻 buat yg belum dapet thr jangan kawatir.. karena aku bakal tetep ngadain bagi2 skincare gratis ke kalian 🥰☝🏻</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2.385454545454545</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.267272727272727</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1181818181818182</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.1327272727272727</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@elsaset/video/7486393513286864133</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7057</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1247</v>
+      </c>
+      <c r="D8" t="n">
+        <v>65</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>73</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Membalas @ranti^^ Celamatttt 🫶🏻 buat yg belum dapet thr jangan kawatir.. karena aku bakal tetep ngadain bagi2 skincare gratis ke kalian 🥰☝🏻</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>18.59146946294459</v>
+      </c>
+      <c r="I8" t="n">
+        <v>17.6703981861981</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.9210712767464928</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.034433895422984</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@elsaset/video/7486385794177895685</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10200</v>
+      </c>
+      <c r="C9" t="n">
+        <v>643</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>50</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Membalas @ranti^^ Celamatttt 🫶🏻 buat yg belum dapet thr jangan kawatir.. karena aku bakal tetep ngadain bagi2 skincare gratis ke kalian 🥰☝🏻</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6.65686274509804</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.303921568627451</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.4901960784313725</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@elsaset/video/7486385165153914118</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>54900</v>
+      </c>
+      <c r="C10" t="n">
+        <v>639</v>
+      </c>
+      <c r="D10" t="n">
+        <v>32</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>48</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>ada aja gebrakan elsheskin!!! masaa serum exfo kandungannya 20% multi acid 🫵🏻😍 #serumbrightening #eksfoliasi</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1.222222222222222</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.163934426229508</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.05828779599271403</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.08743169398907104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@elsaset/video/7486077862580063543</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>15200</v>
+      </c>
+      <c r="C11" t="n">
+        <v>282</v>
+      </c>
+      <c r="D11" t="n">
+        <v>47</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>59</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>68</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Membalas @ranti^^ Celamatttt 🫶🏻 buat yg belum dapet thr jangan kawatir.. karena aku bakal tetep ngadain bagi2 skincare gratis ke kalian 🥰☝🏻</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2.345588235294118</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.237132352941177</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1084558823529412</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2025-03-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@elsaset/video/7486393513286864133</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6777</v>
-      </c>
-      <c r="C5" t="n">
-        <v>639</v>
-      </c>
-      <c r="D5" t="n">
-        <v>34</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>48</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>cushion paling gong nih☝🏻😍 #PowerstaySyncCushion #makeoverid #FaceItFirst #cushionmakeover</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9.930647779253357</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9.428950863213812</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.5016969160395455</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.7082779991146525</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@elsaset/video/7486385794177895685</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>9675</v>
-      </c>
-      <c r="C6" t="n">
-        <v>631</v>
-      </c>
-      <c r="D6" t="n">
-        <v>30</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>46</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>ada aja gebrakan elsheskin!!! masaa serum exfo kandungannya 20% multi acid 🫵🏻😍 #serumbrightening #eksfoliasi</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6.832041343669252</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.521963824289406</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.310077519379845</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.475452196382429</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@elsaset/video/7486385165153914118</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>47100</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3188</v>
-      </c>
-      <c r="D7" t="n">
-        <v>28</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>280</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>emang gong banget antiperspirant yang satu inii ☝🏻😍 #graceandglow #antiperspirant</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6.828025477707006</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.768577494692145</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.059447983014862</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.59447983014862</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@elsaset/video/7486077862580063543</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>15000</v>
-      </c>
-      <c r="C8" t="n">
-        <v>657</v>
-      </c>
-      <c r="D8" t="n">
-        <v>47</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>57</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>dari pagi sampai pagi lagi ni muka bakal tetep flawless gaiss 🫵🏻😍 #PowerstaySyncCushion #makeoverid</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4.693333333333333</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.3133333333333334</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2025-03-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>아침부터 아침까지 다시 이 얼굴은 완벽한 가이스로 남을 것입니다. 🫵🏻😍#PowerstaySyncCushion #makeoverid</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2.164473684210526</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.855263157894737</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3092105263157895</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.3881578947368421</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7486060141922569477</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B12" t="n">
         <v>62500</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C12" t="n">
         <v>1147</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D12" t="n">
         <v>102</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>94</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Biasanya aku bagi2 skincare gratis, spesial kali ini mau bagi2 THR tapi buat 1 orang aja ya 🙏🏻
 untuk bagi2 skincare aku bakal tetep lanjut kok 🫶🏻 cara ikutannya gimana nih? gampang banget cuma ninggalin jejak aja di video2 aku yaa.. yg paling rajin komen bakal keciduk 🥰</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H12" t="n">
         <v>1.9984</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I12" t="n">
         <v>1.8352</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.1632</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L12" t="n">
         <v>0.1504</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7486020849045081349</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B13" t="n">
         <v>23200</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C13" t="n">
         <v>753</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D13" t="n">
         <v>36</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>51</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>multifungsi bangett ni pallete ☝🏻😍 #FacialShaping #palatetutor #focalluremakebeauty</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H13" t="n">
         <v>3.400862068965517</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I13" t="n">
         <v>3.245689655172414</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.1551724137931035</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L13" t="n">
         <v>0.2198275862068966</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7485986328941792567</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B14" t="n">
         <v>23400</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C14" t="n">
         <v>1490</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D14" t="n">
         <v>25</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>46</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Harus rutin eksfoliasi biar kulit jadi glowing ☝🏻🥰 #GlowingBikinPangling #peelingserum</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H14" t="n">
         <v>6.474358974358975</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I14" t="n">
         <v>6.367521367521367</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.1068376068376068</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L14" t="n">
         <v>0.1965811965811966</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7485870140484242743</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B15" t="n">
         <v>8443</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C15" t="n">
         <v>461</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D15" t="n">
         <v>30</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>17</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>untung aja complextionnya pakai daycream ini jadi gabakal luntur meskipun diguyur pake air 🫶🏻🥰 #glowsicha</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H15" t="n">
         <v>5.815468435390264</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I15" t="n">
         <v>5.460144498401042</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.3553239369892219</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L15" t="n">
         <v>0.2013502309605591</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7485674738765909303</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B16" t="n">
         <v>42300</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C16" t="n">
         <v>1062</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D16" t="n">
         <v>35</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>66</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>untung aja complextionnya pakai daycream ini jadi gabakal luntur meskipun diguyur pake air 🫶🏻🥰 #glowsicha</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H16" t="n">
         <v>2.593380614657211</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I16" t="n">
         <v>2.51063829787234</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.08274231678486997</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L16" t="n">
         <v>0.1560283687943262</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7485285235052072198</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B17" t="n">
         <v>12400</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C17" t="n">
         <v>805</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D17" t="n">
         <v>41</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>14</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>jadi pengen nyoba koleksi jacquelle yg lain deh ☝🏻😍 #jacquelle</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H17" t="n">
         <v>6.82258064516129</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I17" t="n">
         <v>6.491935483870968</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.3306451612903226</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L17" t="n">
         <v>0.1129032258064516</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7485266628586900741</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B18" t="n">
         <v>7399</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C18" t="n">
         <v>554</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D18" t="n">
         <v>33</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>16</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>kalian harus coba produk ini sih ☝🏻😍 #NaturEWhite #BrightandGlow #ShineHealthyBright</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H18" t="n">
         <v>7.93350452763887</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I18" t="n">
         <v>7.48749831058251</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.446006217056359</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L18" t="n">
         <v>0.2162454385727801</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7485218195939380535</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B19" t="n">
         <v>54100</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C19" t="n">
         <v>1189</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D19" t="n">
         <v>44</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>17</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>gaiss ramein vt yg aku sematin yukk 🫶🏻</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H19" t="n">
         <v>2.279112754158965</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I19" t="n">
         <v>2.197781885397412</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.08133086876155268</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L19" t="n">
         <v>0.03142329020332717</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7485213283750841655</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B20" t="n">
         <v>6148</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C20" t="n">
         <v>585</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D20" t="n">
         <v>34</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>20</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>lebaran pake ini pasti bakal cakepp bgtt 🫵🏻😍 @Saniye Beauty Store #SANIYE #Eyeshadow</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H20" t="n">
         <v>10.0683148991542</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I20" t="n">
         <v>9.515289525048797</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.5530253741054001</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L20" t="n">
         <v>0.3253090435914118</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7485127331137244422</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B21" t="n">
         <v>22700</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C21" t="n">
         <v>1156</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D21" t="n">
         <v>37</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>20</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>kalian harus cobain juga deh 🫵🏻 #mooi #mooitoneupbooster #GlowAndGrowTogether #YourSelfMatter</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H21" t="n">
         <v>5.255506607929515</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I21" t="n">
         <v>5.09251101321586</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.1629955947136564</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L21" t="n">
         <v>0.0881057268722467</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7485028275299814711</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B22" t="n">
         <v>45500</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C22" t="n">
         <v>1115</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D22" t="n">
         <v>67</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>75</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Membalas @vanyara yuhuuu selamatt 🫶🏻 buat yg belum dapet tenang aja.. aku bakalan terus ngadain bagi2 skincare gratis buat kalian 🥰 pokoknya rajin2 muncul divideo2 aku ya 🫶🏻</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H22" t="n">
         <v>2.597802197802197</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I22" t="n">
         <v>2.450549450549451</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.1472527472527473</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L22" t="n">
         <v>0.1648351648351648</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7484790131182800133</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B23" t="n">
         <v>29500</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C23" t="n">
         <v>1045</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D23" t="n">
         <v>28</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>39</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>auto bikin kulit cerah kalau pakai facewash ini ☝🏻😍 @THE FACE #skincarepencerah #thefacetemukawak</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H23" t="n">
         <v>3.637288135593221</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I23" t="n">
         <v>3.542372881355932</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.09491525423728814</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L23" t="n">
         <v>0.1322033898305085</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7484788270488964357</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>23100</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>832</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D24" t="n">
         <v>40</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>23</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Buruan deh mending kalian beli sekarang mumpung baru launching harganya cuman 59rb ajaa udah dapet 1 sticker terus kalau kalian beli bundle cuman 105rb aja udah dapet free charm lip oil. Ini limited ya, jadi mending check out sekarang!</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>3.774891774891775</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I24" t="n">
         <v>3.601731601731602</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.1731601731601732</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L24" t="n">
         <v>0.09956709956709957</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7484641586341530935</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B25" t="n">
         <v>54700</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C25" t="n">
         <v>832</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D25" t="n">
         <v>40</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>23</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Buruan deh mending kalian beli sekarang mumpung baru launching harganya cuman 59rb ajaa udah dapet 1 sticker terus kalau kalian beli bundle cuman 105rb aja udah dapet free charm lip oil. Ini limited ya, jadi mending check out sekarang!</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H25" t="n">
         <v>1.594149908592322</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I25" t="n">
         <v>1.521023765996344</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.07312614259597806</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L25" t="n">
         <v>0.04204753199268738</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7484588702967090487</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B26" t="n">
         <v>324000</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C26" t="n">
         <v>1190</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D26" t="n">
         <v>50</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>25</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Absen dulu gaiss ☝🏻</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H26" t="n">
         <v>0.3827160493827161</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I26" t="n">
         <v>0.367283950617284</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.0154320987654321</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L26" t="n">
         <v>0.007716049382716049</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7484532172313873719</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B27" t="n">
         <v>10300</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C27" t="n">
         <v>1666</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D27" t="n">
         <v>30</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>82</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Foundation yg ringan, minim oksidasi, soft matte finish tapi gabikin crack/ patchy ☝🏻😍 @ONLYOU Store</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H27" t="n">
         <v>16.46601941747573</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I27" t="n">
         <v>16.1747572815534</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.2912621359223301</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L27" t="n">
         <v>0.7961165048543689</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7484528485868866821</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B28" t="n">
         <v>12000</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C28" t="n">
         <v>653</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D28" t="n">
         <v>34</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>24</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>biar wajah gak kusam yuk pakai si combo serum + day cream ini ☝🏻🥰 @THE FACE #thefacetemulawakbpom</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H28" t="n">
         <v>5.725000000000001</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I28" t="n">
         <v>5.441666666666666</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.2833333333333333</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L28" t="n">
         <v>0.2</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7484144444891991351</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B29" t="n">
         <v>13400</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C29" t="n">
         <v>749</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>33</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>makeup sat set anti longsor ni boss 🫵🏻😍 #stitch #PowerstaySyncCushion #makeoverid #FaceItFirst</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H29" t="n">
         <v>5.798507462686567</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I29" t="n">
         <v>5.58955223880597</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.208955223880597</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L29" t="n">
         <v>0.2462686567164179</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7484143894188363014</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B30" t="n">
         <v>30800</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C30" t="n">
         <v>794</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D30" t="n">
         <v>51</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>55</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>sukaakk ama hasilnya 😍 #glowsicha #glowsichabundling</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H30" t="n">
         <v>2.743506493506493</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I30" t="n">
         <v>2.577922077922078</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.1655844155844156</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L30" t="n">
         <v>0.1785714285714286</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7484013924204023095</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B31" t="n">
         <v>44100</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C31" t="n">
         <v>1079</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D31" t="n">
         <v>35</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>50</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>bener-bener mantep bgt ni cushion anti longsor 🫵🏻😍 #PowerstaySyncCushion #makeoverid #FaceltFirst</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H31" t="n">
         <v>2.526077097505669</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I31" t="n">
         <v>2.44671201814059</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.07936507936507936</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L31" t="n">
         <v>0.1133786848072562</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7483850309677288759</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B32" t="n">
         <v>39600</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C32" t="n">
         <v>1043</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D32" t="n">
         <v>46</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>65</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Rawat hati rawat jerawat bersama Nurilab Acne Conclearing Spot Drying Lotion yg bantu noda jerawat dan flek hitam memudar</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H32" t="n">
         <v>2.75</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I32" t="n">
         <v>2.633838383838384</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.1161616161616162</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L32" t="n">
         <v>0.1641414141414141</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7483749871078460727</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B33" t="n">
         <v>38300</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C33" t="n">
         <v>725</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D33" t="n">
         <v>72</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>77</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Membalas @SAHAYA yang belum kebagian tenang aja, aku bakal lebih sering ngasih skincare gratis ke kalian, pokoknya jangan bosen buat komen disemua video aku yaa 🥰</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H33" t="n">
         <v>2.080939947780679</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I33" t="n">
         <v>1.892950391644909</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.1879895561357702</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L33" t="n">
         <v>0.2010443864229765</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7483730121162100023</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B34" t="n">
         <v>6479</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C34" t="n">
         <v>1196</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D34" t="n">
         <v>39</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>33</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Buat kalian yang susah banget ngilangin bekas jerawat PIH &amp; PIE , udah waktunya buat cobain serum yg satu ini ☝🏻🥰 oh iya aku mau infoin kalau serumnya</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H34" t="n">
         <v>19.06158357771261</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I34" t="n">
         <v>18.45963883315326</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.6019447445593457</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L34" t="n">
         <v>0.5093378607809848</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7483728651436084535</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B35" t="n">
         <v>32100</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C35" t="n">
         <v>460</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>51</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Rekomended bgt nih buat yang kulitnya sensitif dan kering ☝🏻🥰 @Aveeno Indonesia #aveeno</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H35" t="n">
         <v>1.538940809968847</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I35" t="n">
         <v>1.433021806853582</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.1059190031152648</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L35" t="n">
         <v>0.1588785046728972</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7483424973105712439</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B36" t="n">
         <v>27100</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C36" t="n">
         <v>1233</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D36" t="n">
         <v>85</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>39</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Hari ini bakal aku umumin lagi siapa yg bakalan dapet skincare gratis 🫶🏻🔥
 Rules :
 Follow tiktok &amp; ig : @elsasepteani</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H36" t="n">
         <v>4.863468634686347</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I36" t="n">
         <v>4.549815498154981</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.3136531365313653</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L36" t="n">
         <v>0.1439114391143911</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7483390788190129413</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B37" t="n">
         <v>22800</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C37" t="n">
         <v>1233</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D37" t="n">
         <v>85</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>39</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Hari ini bakal aku umumin lagi siapa yg bakalan dapet skincare gratis 🫶🏻🔥
 Rules :
 Follow tiktok &amp; ig : @elsasepteani</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H37" t="n">
         <v>5.780701754385965</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I37" t="n">
         <v>5.407894736842105</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.3728070175438596</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L37" t="n">
         <v>0.1710526315789474</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7483387590171741445</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B38" t="n">
         <v>13700</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C38" t="n">
         <v>858</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D38" t="n">
         <v>27</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>24</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>mulai sekarang pakainya yg Pure Retinol SA aja yaak ☝🏻🥰 @Neutrogena Indonesia #neutrogena</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H38" t="n">
         <v>6.45985401459854</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I38" t="n">
         <v>6.262773722627737</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.1970802919708029</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L38" t="n">
         <v>0.1751824817518248</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7483262889248214327</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B39" t="n">
         <v>11600</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C39" t="n">
         <v>900</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D39" t="n">
         <v>32</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>16</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>yuk cobain juga skincarenya Animate 5X Active Whitening ini ☝🏻😍 #animatebeauty #Glowingskineveryday</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H39" t="n">
         <v>8.03448275862069</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I39" t="n">
         <v>7.758620689655173</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.2758620689655172</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L39" t="n">
         <v>0.1379310344827586</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7482700806421056823</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B40" t="n">
         <v>49900</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C40" t="n">
         <v>758</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D40" t="n">
         <v>29</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>21</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>makeup sat set ala akuu ☝🏻🥰 @BIOAQUA Official Store #Bioaqua #LockYouLook #SwipeItGlowIt</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H40" t="n">
         <v>1.577154308617235</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I40" t="n">
         <v>1.519038076152305</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.05811623246492986</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L40" t="n">
         <v>0.04208416833667335</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7482698520445668663</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B41" t="n">
         <v>45900</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C41" t="n">
         <v>1080</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D41" t="n">
         <v>33</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>17</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>tapi takut wajah jadi breakout 🥹</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H41" t="n">
         <v>2.424836601307189</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I41" t="n">
         <v>2.352941176470588</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.0718954248366013</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L41" t="n">
         <v>0.03703703703703703</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7482076910579649847</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B42" t="n">
         <v>135400</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C42" t="n">
         <v>1099</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D42" t="n">
         <v>42</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>20</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>micellar andalan yg bikin kulit sehat ☝🏻😍 @npureofficial #NPURE</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H42" t="n">
         <v>0.842688330871492</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I42" t="n">
         <v>0.811669128508124</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.0310192023633678</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L42" t="n">
         <v>0.01477104874446086</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7482019620820487430</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B43" t="n">
         <v>407000</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C43" t="n">
         <v>1098</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D43" t="n">
         <v>35</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>20</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>suka bgt sama look makeup kali ini 😍 #thefacetemulawakbpom #skincarepencerah</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H43" t="n">
         <v>0.2783783783783784</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I43" t="n">
         <v>0.2697788697788698</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.0085995085995086</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L43" t="n">
         <v>0.004914004914004914</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7482008130298203398</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B44" t="n">
         <v>86400</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C44" t="n">
         <v>1072</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D44" t="n">
         <v>39</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>18</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>tiap episode nonton ini pasti mewekk teruss euyy... ni mata jadi sembab bgt pliss 😭🥹 #wlgyt</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H44" t="n">
         <v>1.28587962962963</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I44" t="n">
         <v>1.240740740740741</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.04513888888888889</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L44" t="n">
         <v>0.02083333333333334</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7481925490387717382</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B45" t="n">
         <v>12700</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C45" t="n">
         <v>2646</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D45" t="n">
         <v>84</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>289</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>makeup ala inces nii ☝🏻😍 #glowsicha #glowsichadaycream</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H45" t="n">
         <v>21.49606299212598</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I45" t="n">
         <v>20.83464566929134</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.6614173228346456</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L45" t="n">
         <v>2.275590551181102</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7481811080323271941</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B46" t="n">
         <v>18600</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C46" t="n">
         <v>1219</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D46" t="n">
         <v>86</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>36</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>makeup ala inces nii ☝🏻😍 #glowsicha #glowsichadaycream</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H46" t="n">
         <v>7.016129032258064</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I46" t="n">
         <v>6.553763440860215</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.4623655913978494</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L46" t="n">
         <v>0.1935483870967742</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7481807259270401335</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B47" t="n">
         <v>2100000</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C47" t="n">
         <v>756</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D47" t="n">
         <v>27</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>16</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>definisi exfoliasi sat set nggak perlu dibilas ☝🏻😍 @Avoskin Beauty #glowingmiliksemua</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H47" t="n">
         <v>0.03728571428571429</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I47" t="n">
         <v>0.036</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.001285714285714286</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L47" t="n">
         <v>0.0007619047619047619</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7481581368497950007</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B48" t="n">
         <v>52900</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C48" t="n">
         <v>1083</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D48" t="n">
         <v>24</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>15</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Mugwort gel mask nya acnaway ini jadi skincare emergency banget kalau kulit lagi kenapa-napa 🥰</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H48" t="n">
         <v>2.092627599243856</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I48" t="n">
         <v>2.047258979206049</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.04536862003780719</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L48" t="n">
         <v>0.02835538752362949</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7481576149428997381</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B49" t="n">
         <v>570300</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C49" t="n">
         <v>13800</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D49" t="n">
         <v>137</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>2046</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>yuk cobain sekarang juga infaillible 3 second setting mist ini ‼️ @L’Oreal Paris Makeup &amp; Hair ##3detikchallenge</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H49" t="n">
         <v>2.443801507978257</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I49" t="n">
         <v>2.41977906365071</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.0240224443275469</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L49" t="n">
         <v>0.3587585481325618</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7481558707331960119</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B50" t="n">
         <v>68900</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C50" t="n">
         <v>1141</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D50" t="n">
         <v>38</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>20</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>meskipun perjalanan mudik jauhh, pokoknya wajib bawa ini biar si manis tetap nyaman 🫵🏻😍 @Gendes Official</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H50" t="n">
         <v>1.711175616835994</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I50" t="n">
         <v>1.656023222060958</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.05515239477503629</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L50" t="n">
         <v>0.02902757619738752</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@elsaset/video/7481304694191557893</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B51" t="n">
         <v>53500</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C51" t="n">
         <v>2846</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D51" t="n">
         <v>106</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>137</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>yg pink ini sering keabisan mulu kalo di online, ehh ternyata di indomaret adaa dong ☝🏻😍 #moisturizer</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="H51" t="n">
         <v>5.517757009345795</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I51" t="n">
         <v>5.319626168224299</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.1981308411214953</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L51" t="n">
         <v>0.2560747663551401</v>
       </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-03-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@elsaset/video/7481205529449123127</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>63800</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1156</v>
-      </c>
-      <c r="D49" t="n">
-        <v>20</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>15</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>ini dia tips dari aku biar kulit gak ikutan haus saat kita sedang berpuasa 🫶🏻🥰 @watchmebareit #WatchMeBareIt</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>1.843260188087774</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1.811912225705329</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.03134796238244515</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.02351097178683386</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-03-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@elsaset/video/7481179506703666487</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>23300</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1156</v>
-      </c>
-      <c r="D50" t="n">
-        <v>20</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>15</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>ini dia tips dari aku biar kulit gak ikutan haus saat kita sedang berpuasa 🫶🏻🥰 @watchmebareit #WatchMeBareIt</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>5.047210300429185</v>
-      </c>
-      <c r="I50" t="n">
-        <v>4.96137339055794</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.08583690987124463</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.06437768240343347</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
